--- a/output/2023/ERA/table3.xlsx
+++ b/output/2023/ERA/table3.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -382,14 +382,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fiske med passiva redskap i Skagerrak och Kattegatt</t>
+          <t>Fiske med passiva redskap;  3a</t>
         </is>
       </c>
       <c r="B2">
         <v>220</v>
       </c>
       <c r="C2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D2">
         <v>225</v>
@@ -398,23 +398,23 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fiske med passiva redskap i centrala och södra Östersjön</t>
+          <t>Fiske med övriga passiva redskap; 22-32</t>
         </is>
       </c>
       <c r="B3">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="C3">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="D3">
-        <v>105</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fiske med kräftburar</t>
+          <t>Fiske med kräftburar;  3a</t>
         </is>
       </c>
       <c r="B4">
@@ -430,7 +430,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bottentrålfiske efter kräfta med rist i Skagerrak och Kattegatt</t>
+          <t>Bottentrål havskräfta rist;  3a</t>
         </is>
       </c>
       <c r="B5">
@@ -446,30 +446,30 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fiske med passiva redskap i norra Östersjön</t>
+          <t>Passiva redskap (torsk); 25-32</t>
         </is>
       </c>
       <c r="B6">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C6">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D6">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bottentrålfiske efter kräfta och fisk i Skagerrak</t>
+          <t>Bottentrål havskräfta och fisk;  3a20</t>
         </is>
       </c>
       <c r="B7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D7">
         <v>50</v>
@@ -478,11 +478,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske med aktiva redskap</t>
+          <t>Räkfiske rist;  3a4</t>
         </is>
       </c>
       <c r="B8">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C8">
         <v>45</v>
@@ -494,145 +494,219 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Bottentrålfiske efter kräfta och fisk i Kattegatt</t>
+          <t>Bottentrål havskräfta och fisk;  3a21</t>
         </is>
       </c>
       <c r="B9">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C9">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D9">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Räkfiske med rist i Skagerrak, Kattegatt och Nordsjön</t>
+          <t>Passiva redskap (torsk); 22-24</t>
         </is>
       </c>
       <c r="B10">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C10">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D10">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Fiske i Öresund</t>
+          <t>Fiske med finmaskig bottentrål efter pelagiska arter; 30-31</t>
         </is>
       </c>
       <c r="B11">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>30</v>
       </c>
       <c r="D11">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Fiske efter lax</t>
+          <t>Räkfiske tunnel och rist;  3a4</t>
         </is>
       </c>
       <c r="B12">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Räkfiske med rist/tunnel i Skagerrak, Kattegatt och Nordsjön</t>
+          <t>Pelagiskt fiske med aktiva redskap (flyttrål, vad); 25-29</t>
         </is>
       </c>
       <c r="B13">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>27</v>
       </c>
       <c r="D13">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Fiske efter siklöja med bottentrål</t>
+          <t>Bottentrål fisk;  3a20</t>
         </is>
       </c>
       <c r="B14">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C14">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D14">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Bottentrålfiske efter fisk i Skagerrak</t>
+          <t>Pelagiskt fiske med aktiva redskap (flyttrål, vad); 21-24</t>
         </is>
       </c>
       <c r="B15">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C15">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Bottentrålfiske efter torsk i Östersjön</t>
+          <t>Pelagiskt fiske med aktiva redskap (bottentrål);  3a204</t>
         </is>
       </c>
       <c r="B16">
         <v>10</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Bottentrålfiske efter fisk i Nordsjön</t>
+          <t>Pelagiskt fiske med aktiva redskap (flyttrål, vad); 30-31</t>
         </is>
       </c>
       <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Pelagiskt fiske med aktiva redskap (flyttrål, vad); 3a4</t>
+        </is>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fiske med stormaskig bottentrål (torsk); 25-32</t>
+        </is>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
         <v>6</v>
       </c>
-      <c r="C17">
+      <c r="D19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fiske med finmaskig bottentrål efter pelagiska arter; 25-29</t>
+        </is>
+      </c>
+      <c r="B20">
         <v>6</v>
       </c>
-      <c r="D17">
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20">
         <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Bottentrål fisk;  4</t>
+        </is>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Fiske med stormaskig bottentrål (torsk); 22-24</t>
+        </is>
+      </c>
+      <c r="B22">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
